--- a/game/whois.xlsx
+++ b/game/whois.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\goproject\kkbot\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D600FDD-8262-4AEA-9AD7-9AE9238C5FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2AB894-F4A8-454B-A9C2-C67100426122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>秋裤</t>
   </si>
   <si>
-    <t>内裤</t>
-  </si>
-  <si>
     <t>母老虎</t>
   </si>
   <si>
@@ -117,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卫生巾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高跟鞋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -197,10 +190,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卫生棉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>增高鞋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -280,10 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>妇炎洁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>母老虎</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -312,10 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>泳裤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>丝袜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -329,10 +310,6 @@
   </si>
   <si>
     <t>再来一瓶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗洁精</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -688,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -709,7 +686,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -717,7 +694,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -725,7 +702,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -733,7 +710,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -741,7 +718,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -749,282 +726,282 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
+      <c r="A35" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>29</v>
+      <c r="A36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
+      <c r="A37" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
+      <c r="A38" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>43</v>
+      <c r="A41" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,37 +1009,13 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" display="https://www.zhihu.com/search?q=%E5%A0%A1%E5%9E%92%E4%B9%8B%E5%A4%9C&amp;search_source=Entity&amp;hybrid_search_source=Entity&amp;hybrid_search_extra=%7B%22sourceType%22%3A%22answer%22%2C%22sourceId%22%3A1097242853%7D" xr:uid="{7C66570C-2B2F-48C1-A111-6A787B0CF08F}"/>
+    <hyperlink ref="A40" r:id="rId1" display="https://www.zhihu.com/search?q=%E5%A0%A1%E5%9E%92%E4%B9%8B%E5%A4%9C&amp;search_source=Entity&amp;hybrid_search_source=Entity&amp;hybrid_search_extra=%7B%22sourceType%22%3A%22answer%22%2C%22sourceId%22%3A1097242853%7D" xr:uid="{7C66570C-2B2F-48C1-A111-6A787B0CF08F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
